--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/15_Bayburt_2023.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2023/15_Bayburt_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C1D28F-932B-4B23-8BA0-D0E2021006CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8A9E6FB-41D4-4018-8E1E-F6D9B935C14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{E986388F-2E57-4E8E-9C69-F862B2E5489C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{10B8E82F-AF24-4B1C-8897-D892E1A379C0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="124" r:id="rId1"/>
@@ -964,14 +964,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{1313E922-D55D-46F5-97E6-34AAD3FA36F7}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BCD201FD-0FD2-4B5D-8554-24FAC7E3AE0B}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{DA4BCF48-CDC2-46A0-950C-83A0E9914A59}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{B684C689-6D51-4445-BD0D-FE86A115D39D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{C4C6690A-4998-48C4-86C7-112055025159}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{A89FFD5E-AB21-4B4A-B692-FAF67AB4D231}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{74E739CC-FE70-46C1-B95F-1D1E29284E29}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{35BBFAA4-70BE-48EE-93EC-405017B952E5}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C193A29A-5EF3-4DE3-840D-3701E4FEC95E}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{30163360-E0AA-4422-A3FD-78322414E221}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{270C2C4D-22DB-47C4-AD81-08CDA6E449B6}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{241E77E7-F021-4087-A314-AB9E041D74E8}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{CDE1BDDE-320F-4196-8F7E-F067F8764D67}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{D335D8AA-55DF-4AA6-A59D-8A961380643A}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{C60ADB77-1A3A-4A6B-AC77-D50EBA0B1BFB}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{DB082503-3ED7-40BF-BA52-8A859EB0F82B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1341,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F12BAFD-DF1B-4740-BFD8-BB7D15BD19C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5C0145-35F1-4204-A4B1-81B43B5399DF}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2561,7 +2561,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FAB13B8-9448-4E46-B89C-874B48E52353}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6A79D1-18FA-435E-8901-D650A274A8B6}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3750,7 +3750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB7473A-9E53-4B3A-B2CF-353E6616732F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2428F18A-4793-49ED-8A7D-114B5CD9391F}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4927,7 +4927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66294869-E898-4BBE-9D5F-67388748B1E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6996A7EE-6998-4C14-B8AF-1E5CAF41C12B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6090,7 +6090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E65321-FB4D-45FD-8084-B5443250859D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D0909EA-B0ED-4585-9A43-22CB0BAFDE9E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7313,7 +7313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F56EC10-749C-4A67-8DF2-82F1EEAFB4B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFBE9F63-7A8E-45FF-A103-4D969C8F8861}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8536,7 +8536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B592B0-99DB-46CE-83D4-4BE4BCBBB2FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C24715E1-72F2-45F5-8047-04A0B36E7717}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9759,7 +9759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42573437-A9C7-49ED-860F-8FCE2B4DA65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B47F8376-9657-4517-AD61-179CDC0F644E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10982,7 +10982,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B94DD7E-FE49-4C51-B281-0EC515DDCED5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334483E4-C7B3-42DD-BD56-7F9D7E069226}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12205,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8E390-D3C7-4DE3-A8E9-B32971F608D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{274EEF4B-8E40-44D0-ABFB-144F83BE5C8C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13414,7 +13414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09C83533-43CD-4777-899C-A183130AB234}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666D051A-20B5-4A9F-A091-B3EE089D0AC3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14623,7 +14623,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{733FF70A-1385-42B2-9335-734BAC0023FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83391BAD-D480-42AF-AD96-834357536A26}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
